--- a/Documents/Emids HEDIS Doucments/3M Standard Quality Measures -Scope.xlsx
+++ b/Documents/Emids HEDIS Doucments/3M Standard Quality Measures -Scope.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project HEDIS\Documents\Emids HEDIS Doucments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="19980" windowHeight="7815" activeTab="1"/>
   </bookViews>
@@ -14,12 +19,12 @@
     <sheet name="PQRS" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HEDIS!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HEDIS!$A$1:$G$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MSSP!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PQRS!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">STAR!$D$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -29,7 +34,7 @@
     <author>Saurabh Shukla2</author>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5293,6 +5298,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -5340,7 +5348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5375,7 +5383,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5667,10 +5675,10 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7442,7 +7450,7 @@
       <c r="C89" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:G60"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
